--- a/tm-driver/ix-evolution/src/main/resources/init/oob/role/ADMIN.USER/falcon.x.attachment.xlsx
+++ b/tm-driver/ix-evolution/src/main/resources/init/oob/role/ADMIN.USER/falcon.x.attachment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="67720" yWindow="-9820" windowWidth="46740" windowHeight="32900"/>
+    <workbookView xWindow="43680" yWindow="-10500" windowWidth="46740" windowHeight="32900"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="DATA-PERM" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -74,30 +74,6 @@
   </si>
   <si>
     <t>附件导入/导出</t>
-  </si>
-  <si>
-    <t>4b398ad8-0d8c-4dab-8954-85130b86d973</t>
-  </si>
-  <si>
-    <t>上传</t>
-  </si>
-  <si>
-    <t>7240209a-22d8-4ce5-a8a3-108c177354d9</t>
-  </si>
-  <si>
-    <t>下载</t>
-  </si>
-  <si>
-    <t>e24e1d5f-297e-4f9e-9eb7-d67a9f7f5174</t>
-  </si>
-  <si>
-    <t>我的文件</t>
-  </si>
-  <si>
-    <t>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</t>
-  </si>
-  <si>
-    <t>读取文件</t>
   </si>
   <si>
     <t>S_VIEW</t>
@@ -660,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K23"/>
+  <dimension ref="A3:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11" customHeight="1"/>
@@ -777,142 +753,98 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D16" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="F16" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="G16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="H16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="I16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="J16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="14" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="D17" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="E17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="F17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="G17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="H17" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="J17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="K17" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
